--- a/exposan/g2rt/data/impact_items.xlsx
+++ b/exposan/g2rt/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuanwang/Library/CloudStorage/GoogleDrive-wyatt4428@gmail.com/My Drive/4- Research/430- UIUC/433. Coding/QSD_san/EXPOsan/exposan/g2rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D638D-DF09-054B-89B5-BDE26D7D3D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578B6D3-E10C-1649-B9C8-F7E60509A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="-2440" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="36">
   <si>
     <t>uniform</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Compressor_300kW</t>
+  </si>
+  <si>
+    <t>ZincCoat</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,6 +684,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,11 +746,11 @@
         <v>8.8785325999999998</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">C2*0.9</f>
+        <f t="shared" ref="D2:D20" si="0">C2*0.9</f>
         <v>7.9906793399999998</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E19" si="1">C2*1.1</f>
+        <f t="shared" ref="E2:E20" si="1">C2*1.1</f>
         <v>9.7663858599999998</v>
       </c>
       <c r="F2" t="s">
@@ -1171,7 +1182,32 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>5.4322602</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4.8890341800000003</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5.9754862200000005</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1182,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,6 +1704,31 @@
         <v>23</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0.12593618000000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="2">C20*0.9</f>
+        <v>0.11334256200000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="3">C20*1.1</f>
+        <v>0.13852979800000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1676,9 +1737,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2162,6 +2223,31 @@
         <v>23</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0.39828018999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="2">C20*0.9</f>
+        <v>0.35845217099999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="3">C20*1.1</f>
+        <v>0.43810820900000003</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2169,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A12" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2655,6 +2741,31 @@
         <v>23</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0.33182298999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="2">C20*0.9</f>
+        <v>0.29864069100000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="3">C20*1.1</f>
+        <v>0.36500528900000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/g2rt/data/impact_items.xlsx
+++ b/exposan/g2rt/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuanwang/Library/CloudStorage/GoogleDrive-wyatt4428@gmail.com/My Drive/4- Research/430- UIUC/433. Coding/QSD_san/EXPOsan/exposan/g2rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578B6D3-E10C-1649-B9C8-F7E60509A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74C3F8-BFD1-D043-AD8A-97FE160CBF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="34560" yWindow="-2440" windowWidth="51200" windowHeight="28300" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="38">
   <si>
     <t>uniform</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>ZincCoat</t>
+  </si>
+  <si>
+    <t>WoodPellet</t>
+  </si>
+  <si>
+    <t>StoneWool</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,6 +698,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A14" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,11 +768,11 @@
         <v>8.8785325999999998</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D20" si="0">C2*0.9</f>
+        <f t="shared" ref="D2:D22" si="0">C2*0.9</f>
         <v>7.9906793399999998</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E20" si="1">C2*1.1</f>
+        <f t="shared" ref="E2:E22" si="1">C2*1.1</f>
         <v>9.7663858599999998</v>
       </c>
       <c r="F2" t="s">
@@ -1207,6 +1229,56 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0.14178389</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.12760550100000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.15596227900000001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1.2681741</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.1413566900000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.3949915100000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1218,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,17 +1787,67 @@
         <v>0.12593618000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="2">C20*0.9</f>
+        <f t="shared" ref="D20:D22" si="2">C20*0.9</f>
         <v>0.11334256200000001</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="3">C20*1.1</f>
+        <f t="shared" ref="E20:E22" si="3">C20*1.1</f>
         <v>0.13852979800000001</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>4.3958951000000003E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>3.9563055900000005E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>4.8354846100000008E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>2.7597746999999999E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>2.48379723E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>3.0357521700000001E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1737,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2234,17 +2356,67 @@
         <v>0.39828018999999998</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="2">C20*0.9</f>
+        <f t="shared" ref="D20:D22" si="2">C20*0.9</f>
         <v>0.35845217099999999</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="3">C20*1.1</f>
+        <f t="shared" ref="E20:E22" si="3">C20*1.1</f>
         <v>0.43810820900000003</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>6.8199964000000002E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>6.1379967600000002E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>7.5019960400000011E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>5.9336112000000003E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>5.3402500800000002E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>6.5269723200000004E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2255,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2752,17 +2924,67 @@
         <v>0.33182298999999998</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="2">C20*0.9</f>
+        <f t="shared" ref="D20:D22" si="2">C20*0.9</f>
         <v>0.29864069100000001</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="3">C20*1.1</f>
+        <f t="shared" ref="E20:E22" si="3">C20*1.1</f>
         <v>0.36500528900000001</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>6.172004E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>5.5548035999999999E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>6.7892044000000002E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>5.1289876999999998E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>4.6160889300000001E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>5.6418864700000002E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
     </row>

--- a/exposan/g2rt/data/impact_items.xlsx
+++ b/exposan/g2rt/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuanwang/Library/CloudStorage/GoogleDrive-wyatt4428@gmail.com/My Drive/4- Research/430- UIUC/433. Coding/QSD_san/EXPOsan/exposan/g2rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74C3F8-BFD1-D043-AD8A-97FE160CBF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA5C794-BE13-3A4D-9D2C-7CFE7B8AA51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="-2440" windowWidth="51200" windowHeight="28300" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="44">
   <si>
     <t>uniform</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>StoneWool</t>
+  </si>
+  <si>
+    <t>AluminumCasting</t>
+  </si>
+  <si>
+    <t>GlassFiber</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>StainlessSteelMachining</t>
+  </si>
+  <si>
+    <t>Switch</t>
   </si>
 </sst>
 </file>
@@ -526,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,6 +732,54 @@
         <v>8</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -721,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,6 +1348,156 @@
         <v>22</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>97.708584999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D27" si="2">C23*0.9</f>
+        <v>87.937726499999997</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E27" si="3">C23*1.1</f>
+        <v>107.4794435</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2.44035</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>2.1963150000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>2.6843850000000002</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1.784068</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1.6056612000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1.9624748000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>3.0634122000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>2.7570709800000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>3.3697534200000003</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>2.7811409</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.5030268100000002</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>3.0592549900000003</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>30.715336000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D33" si="4">C28*0.9</f>
+        <v>27.643802400000002</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E33" si="5">C28*1.1</f>
+        <v>33.786869600000003</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1290,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1787,11 +2003,11 @@
         <v>0.12593618000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D22" si="2">C20*0.9</f>
+        <f t="shared" ref="D20:D27" si="2">C20*0.9</f>
         <v>0.11334256200000001</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E22" si="3">C20*1.1</f>
+        <f t="shared" ref="E20:E27" si="3">C20*1.1</f>
         <v>0.13852979800000001</v>
       </c>
       <c r="F20" t="s">
@@ -1848,6 +2064,156 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1.9073576000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.7166218400000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>2.0980933600000005</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>4.8496714000000003E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>4.3647042600000005E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>5.3346385400000008E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>3.7040465000000002E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>3.3336418499999999E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>4.0744511500000004E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>6.5582487999999994E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>5.9024239199999995E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>7.2140736799999994E-2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>5.9184536000000003E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>5.3266082400000005E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>6.5102989600000008E-2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>0.77725237000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D30" si="4">C28*0.9</f>
+        <v>0.69952713300000002</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E30" si="5">C28*1.1</f>
+        <v>0.85497760700000014</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1859,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A14" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2356,11 +2722,11 @@
         <v>0.39828018999999998</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D22" si="2">C20*0.9</f>
+        <f t="shared" ref="D20:D30" si="2">C20*0.9</f>
         <v>0.35845217099999999</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E22" si="3">C20*1.1</f>
+        <f t="shared" ref="E20:E30" si="3">C20*1.1</f>
         <v>0.43810820900000003</v>
       </c>
       <c r="F20" t="s">
@@ -2417,6 +2783,156 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>4.2587570000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>3.8328813000000004</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>4.6846327000000008</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>0.14156468999999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.12740822099999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.155721159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>0.11576301</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.104186709</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.12733931100000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>0.13411592</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.120704328</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.147527512</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>0.14469177999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.13022260199999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.15916095799999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>3.8293113000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>3.4463801700000003</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>4.2122424300000008</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2427,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A14" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,11 +3440,11 @@
         <v>0.33182298999999998</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D22" si="2">C20*0.9</f>
+        <f t="shared" ref="D20:D27" si="2">C20*0.9</f>
         <v>0.29864069100000001</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E22" si="3">C20*1.1</f>
+        <f t="shared" ref="E20:E27" si="3">C20*1.1</f>
         <v>0.36500528900000001</v>
       </c>
       <c r="F20" t="s">
@@ -2986,6 +3502,138 @@
       </c>
       <c r="G22" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>3.9427783999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>3.5485005599999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>4.3370562399999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>0.10678765</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>9.6108885000000005E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.117466415</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>8.6110305999999998E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>7.7499275399999998E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>9.4721336600000011E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>0.15908116999999999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.14317305299999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.17498928700000002</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>0.23479001999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.21131101799999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.25826902200000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>3.6744378000000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D30" si="4">C28*0.9</f>
+        <v>3.3069940200000003</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E30" si="5">C28*1.1</f>
+        <v>4.041881580000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/g2rt/data/impact_items.xlsx
+++ b/exposan/g2rt/data/impact_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuanwang/Library/CloudStorage/GoogleDrive-wyatt4428@gmail.com/My Drive/4- Research/430- UIUC/433. Coding/QSD_san/EXPOsan/exposan/g2rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA5C794-BE13-3A4D-9D2C-7CFE7B8AA51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027B3C8-A51A-2A44-8525-4CAE4253AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exposan/g2rt/data/impact_items.xlsx
+++ b/exposan/g2rt/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuanwang/Library/CloudStorage/GoogleDrive-wyatt4428@gmail.com/My Drive/4- Research/430- UIUC/433. Coding/QSD_san/EXPOsan/exposan/g2rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027B3C8-A51A-2A44-8525-4CAE4253AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592F44C-061E-3A44-9676-7CB190B48E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="46">
   <si>
     <t>uniform</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Switch</t>
+  </si>
+  <si>
+    <t>NylonGlassFilled</t>
+  </si>
+  <si>
+    <t>CastingBrass</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,6 +786,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -787,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A14" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,17 +1506,67 @@
         <v>30.715336000000001</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D33" si="4">C28*0.9</f>
+        <f t="shared" ref="D28:D29" si="4">C28*0.9</f>
         <v>27.643802400000002</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E33" si="5">C28*1.1</f>
+        <f t="shared" ref="E28:E29" si="5">C28*1.1</f>
         <v>33.786869600000003</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>7.2695221999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>6.5425699799999997</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>7.9964744200000002</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>5.9582616999999997E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="6">C30*0.9</f>
+        <v>5.3624355299999996E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="7">C30*1.1</f>
+        <v>6.5540878699999999E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1506,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A12" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2217,6 +2289,56 @@
         <v>23</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0.12876177999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>0.11588560199999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>0.14163795800000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1.7664695000000001E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>1.58982255E-3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>1.9431164500000003E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2225,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2936,6 +3058,56 @@
         <v>23</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0.26993621000000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.24294258900000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.29692983100000003</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>4.7534583999999996E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>4.2781125600000001E-3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>5.22880424E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2943,10 +3115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3525,6 +3697,9 @@
       <c r="F23" t="s">
         <v>0</v>
       </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -3547,6 +3722,9 @@
       <c r="F24" t="s">
         <v>0</v>
       </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3569,6 +3747,9 @@
       <c r="F25" t="s">
         <v>0</v>
       </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3591,6 +3772,9 @@
       <c r="F26" t="s">
         <v>0</v>
       </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3613,6 +3797,9 @@
       <c r="F27" t="s">
         <v>0</v>
       </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3625,15 +3812,68 @@
         <v>3.6744378000000002</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D30" si="4">C28*0.9</f>
+        <f t="shared" ref="D28:D29" si="4">C28*0.9</f>
         <v>3.3069940200000003</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E30" si="5">C28*1.1</f>
+        <f t="shared" ref="E28:E29" si="5">C28*1.1</f>
         <v>4.041881580000001</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0.27370112000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>0.24633100800000002</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>0.30107123200000002</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>2.1796027999999999E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="6">C30*0.9</f>
+        <v>1.9616425200000001E-3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="7">C30*1.1</f>
+        <v>2.3975630800000002E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/g2rt/data/impact_items.xlsx
+++ b/exposan/g2rt/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuanwang/Library/CloudStorage/GoogleDrive-wyatt4428@gmail.com/My Drive/4- Research/430- UIUC/433. Coding/QSD_san/EXPOsan/exposan/g2rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592F44C-061E-3A44-9676-7CB190B48E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39062B-A529-8341-9580-0DB308325464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="34560" yWindow="-2440" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="47">
   <si>
     <t>uniform</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>CastingBrass</t>
+  </si>
+  <si>
+    <t>Copper</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,6 +805,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1581,31 @@
         <v>22</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>6.5752404999999996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="8">C31*0.9</f>
+        <v>5.9177164499999995</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="9">C31*1.1</f>
+        <v>7.2327645499999997</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA65E-2AB0-4D0E-8E5A-9EA8A54DBEB2}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2275,11 +2311,11 @@
         <v>0.77725237000000003</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D30" si="4">C28*0.9</f>
+        <f t="shared" ref="D28:D31" si="4">C28*0.9</f>
         <v>0.69952713300000002</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E30" si="5">C28*1.1</f>
+        <f t="shared" ref="E28:E31" si="5">C28*1.1</f>
         <v>0.85497760700000014</v>
       </c>
       <c r="F28" t="s">
@@ -2336,6 +2372,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>0.22324712999999999</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>0.20092241699999999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>0.24557184300000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2347,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338397C7-E99F-4EAF-BD45-82C00ACD803A}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3108,6 +3169,31 @@
         <v>23</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>2.4201643000000002</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="4">C31*0.9</f>
+        <v>2.1781478700000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="5">C31*1.1</f>
+        <v>2.6621807300000002</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3115,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7D3C9-542A-47E5-A276-0B7825A720DE}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3862,17 +3948,42 @@
         <v>2.1796027999999999E-3</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30" si="6">C30*0.9</f>
+        <f t="shared" ref="D30:D31" si="6">C30*0.9</f>
         <v>1.9616425200000001E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" si="7">C30*1.1</f>
+        <f t="shared" ref="E30:E31" si="7">C30*1.1</f>
         <v>2.3975630800000002E-3</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>3.2145054000000002</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>2.8930548600000003</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>3.5359559400000005</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>23</v>
       </c>
     </row>
